--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRUNO\Dropbox\Dropbox\__PARCERIA_BRUNO_ALAN\Trigo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRUNO\Dropbox\Dropbox\__PARCERIA_BRUNO_ALAN\Classification of wheat cultivars in water and saline stress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D5636-4235-46F2-B4EB-58E96C95B110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC9967-F360-4E8C-A03E-6FC3FFFA7DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Cultivar </t>
-  </si>
-  <si>
-    <t>Stress</t>
-  </si>
   <si>
     <t>Germination</t>
   </si>
@@ -69,25 +63,10 @@
     <t>BRS 264</t>
   </si>
   <si>
-    <t>TBIO CALIBRE</t>
-  </si>
-  <si>
     <t>BIO 190057</t>
   </si>
   <si>
-    <t>TBIO DUQUE</t>
-  </si>
-  <si>
     <t>BIO 190038</t>
-  </si>
-  <si>
-    <t>TBIO SOSSEGO</t>
-  </si>
-  <si>
-    <t>ORS FEROZ</t>
-  </si>
-  <si>
-    <t>TBIO CONVICTO</t>
   </si>
   <si>
     <t>Repetition</t>
@@ -97,6 +76,27 @@
   </si>
   <si>
     <t>Shoot dry mass</t>
+  </si>
+  <si>
+    <t>Cultivar</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Tbio Calibre</t>
+  </si>
+  <si>
+    <t>Tbio Duque</t>
+  </si>
+  <si>
+    <t>Tbio Sossego</t>
+  </si>
+  <si>
+    <t>ORS Feroz</t>
+  </si>
+  <si>
+    <t>Tbio Convicto</t>
   </si>
 </sst>
 </file>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,42 +482,42 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -1770,10 +1770,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>4</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1">
         <v>4</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
         <v>4</v>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1">
         <v>4</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
         <v>4</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1">
         <v>4</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" s="1">
         <v>4</v>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
@@ -3146,10 +3146,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1">
         <v>3</v>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1">
         <v>4</v>
@@ -3210,10 +3210,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1">
         <v>3</v>
@@ -3306,10 +3306,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1">
         <v>4</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -3370,10 +3370,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1">
         <v>3</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1">
         <v>4</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1">
         <v>3</v>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1">
         <v>4</v>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
@@ -3658,10 +3658,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" s="1">
         <v>4</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -3754,10 +3754,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1">
         <v>2</v>
@@ -3914,10 +3914,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C108" s="1">
         <v>3</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C109" s="1">
         <v>4</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" s="1">
         <v>2</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" s="1">
         <v>3</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -4106,10 +4106,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C115" s="1">
         <v>2</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C117" s="1">
         <v>4</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -4266,10 +4266,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119" s="1">
         <v>2</v>
@@ -4298,10 +4298,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" s="1">
         <v>3</v>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C121" s="1">
         <v>4</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" s="1">
         <v>2</v>
@@ -4426,10 +4426,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1">
         <v>3</v>
@@ -4458,10 +4458,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1">
         <v>4</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C127" s="1">
         <v>2</v>
@@ -4554,10 +4554,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C128" s="1">
         <v>3</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C129" s="1">
         <v>4</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -4650,10 +4650,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C131" s="1">
         <v>2</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C132" s="1">
         <v>3</v>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" s="1">
         <v>4</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRUNO\Dropbox\Dropbox\__PARCERIA_BRUNO_ALAN\Classification of wheat cultivars in water and saline stress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRUNO\Dropbox\Dropbox\__PARCERIA_BRUNO_ALAN\Dataset Eleven commercial wheat cultivars for water and saline stress study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC9967-F360-4E8C-A03E-6FC3FFFA7DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF046A-2DAE-4CD8-86CB-42F1AD6AB5E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Total length</t>
-  </si>
-  <si>
-    <t>Root dry mass</t>
-  </si>
-  <si>
-    <t>Total dry mass</t>
   </si>
   <si>
     <t>Tbio Aton</t>
@@ -75,9 +69,6 @@
     <t>Shoot length</t>
   </si>
   <si>
-    <t>Shoot dry mass</t>
-  </si>
-  <si>
     <t>Cultivar</t>
   </si>
   <si>
@@ -97,6 +88,15 @@
   </si>
   <si>
     <t>Tbio Convicto</t>
+  </si>
+  <si>
+    <t>Shoot dry matter</t>
+  </si>
+  <si>
+    <t>Root dry matter</t>
+  </si>
+  <si>
+    <t>Total dry matter</t>
   </si>
 </sst>
 </file>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:A133"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,19 +482,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -503,21 +503,21 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
         <v>4</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -1770,10 +1770,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1">
         <v>4</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1">
         <v>4</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>4</v>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1">
         <v>4</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1">
         <v>4</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1">
         <v>4</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" s="1">
         <v>4</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -2858,10 +2858,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1">
         <v>4</v>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
@@ -3146,10 +3146,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" s="1">
         <v>3</v>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" s="1">
         <v>4</v>
@@ -3210,10 +3210,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1">
         <v>3</v>
@@ -3306,10 +3306,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1">
         <v>4</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -3370,10 +3370,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1">
         <v>3</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1">
         <v>4</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1">
         <v>3</v>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
         <v>4</v>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
@@ -3658,10 +3658,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" s="1">
         <v>4</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -3754,10 +3754,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" s="1">
         <v>2</v>
@@ -3914,10 +3914,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" s="1">
         <v>3</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" s="1">
         <v>4</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C111" s="1">
         <v>2</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C112" s="1">
         <v>3</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C113" s="1">
         <v>4</v>
@@ -4106,10 +4106,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" s="1">
         <v>2</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1">
         <v>4</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -4266,10 +4266,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" s="1">
         <v>2</v>
@@ -4298,10 +4298,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" s="1">
         <v>3</v>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" s="1">
         <v>4</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C123" s="1">
         <v>2</v>
@@ -4426,10 +4426,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C124" s="1">
         <v>3</v>
@@ -4458,10 +4458,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C125" s="1">
         <v>4</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" s="1">
         <v>2</v>
@@ -4554,10 +4554,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" s="1">
         <v>3</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1">
         <v>4</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -4650,10 +4650,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" s="1">
         <v>2</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" s="1">
         <v>3</v>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" s="1">
         <v>4</v>
